--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geekster\Live\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1939D1F-955E-4DAC-8124-81BDECE2B923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1499536-4904-48DA-B73A-108EB783BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,37 +635,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,243 +953,243 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="158.6640625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="158.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>44688</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>44690</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>44691</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>44692</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>44693</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>44694</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>44695</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>44697</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>44698</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>44699</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="154.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>44700</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <v>44701</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="93" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>44702</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="6">
         <v>44704</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <v>44705</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="6">
         <v>44706</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="157.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="6">
         <v>44707</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="10">
         <v>44708</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="2"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="8"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geekster\Live\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1499536-4904-48DA-B73A-108EB783BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FDD832-FD5D-48E6-AFAB-508A7251B94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Day</t>
   </si>
@@ -953,7 +953,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,7 +1162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1173,8 +1173,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="1"/>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44709</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geekster\Live\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FDD832-FD5D-48E6-AFAB-508A7251B94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90C079E-295F-4FAE-87EA-11BD42260A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Day</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Topics</t>
-  </si>
-  <si>
-    <t>Solve hackerrank questions in class</t>
   </si>
   <si>
     <t>- WAP printing an array
@@ -114,39 +111,6 @@
 - Arrays with fixed size like 10,20,100 are also constant space.
 - If size depends on input,then space complexity is dynamic.
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Solve hackerrank questions in class
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Arrays </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- Compare with boxes of rabbit. [Link]
-- Make boxes to show how memory is reserved like a block continously and not scattered like variables.
-- Syntax of integer array, specify size, why do we need size?, what if we dont mention size.
-- Can store only one type of data i.e int,float,char etc.
-- Can't delete elements, can't append in back
-- Show segmentation error
-- Importance of indexes
-- Example of array data: Marks , temperatures ,heights etc.</t>
     </r>
   </si>
   <si>
@@ -549,6 +513,52 @@
   </si>
   <si>
     <t>Revision, Doubt class</t>
+  </si>
+  <si>
+    <t>Solve hackerrank questions in class
+https://www.hackerrank.com/contests/may-practice-java-dsa
+(Welcome to Java -&gt; GKSTR30 Pattern_13_Number_Hill)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solve hackerrank questions in class
+https://www.hackerrank.com/contests/may-practice-java-dsa
+(Welcome to Java -&gt; GKSTR30 Pattern_13_Number_Hill)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Arrays </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Compare with boxes of rabbit. [Link]
+- Make boxes to show how memory is reserved like a block continously and not scattered like variables.
+- Syntax of integer array, specify size, why do we need size?, what if we dont mention size.
+- Can store only one type of data i.e int,float,char etc.
+- Can't delete elements, can't append in back
+- Show segmentation error
+- Importance of indexes
+- Example of array data: Marks , temperatures ,heights etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>Revision, Doubt class
+Solve hackerrank questions in class
+https://www.hackerrank.com/contests/may-practice-java-dsa
+(GKSTR31 Print_Array -&gt; GKSTR49 Diff_Max_Min)</t>
   </si>
 </sst>
 </file>
@@ -635,17 +645,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -669,6 +670,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,239 +972,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>44688</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44690</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44691</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44692</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44693</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44694</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>44690</v>
-      </c>
-      <c r="C3" s="8" t="s">
+    <row r="8" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44695</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44697</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44698</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44699</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="178.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44700</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44701</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>44691</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="B14" s="3">
+        <v>44702</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>44692</v>
-      </c>
-      <c r="C5" s="7" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="B15" s="3">
+        <v>44704</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>44693</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44705</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>44694</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="B17" s="3">
+        <v>44706</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>44695</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    </row>
+    <row r="18" spans="1:3" ht="157.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44707</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>44697</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    </row>
+    <row r="19" spans="1:3" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>44708</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <v>44698</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>44699</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="154.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>44700</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>44701</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="93" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>44702</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>44704</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>44705</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>44706</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="157.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>44707</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10">
-        <v>44708</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>44709</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>16</v>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="3"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="1"/>
+      <c r="C25" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geekster\Live\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90C079E-295F-4FAE-87EA-11BD42260A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D16229-D20F-4B99-8BC5-6F251B0E790C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1158,7 +1158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="157.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="151.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geekster\Live\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D16229-D20F-4B99-8BC5-6F251B0E790C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85990AE3-28EA-4494-8D42-9BBE80BEB4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Day</t>
   </si>
@@ -559,6 +559,12 @@
 Solve hackerrank questions in class
 https://www.hackerrank.com/contests/may-practice-java-dsa
 (GKSTR31 Print_Array -&gt; GKSTR49 Diff_Max_Min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - while loop
+ - Reverse an array without using extra space
+ - Check if an array is palindrome or not ?
+ - Check if an array is mountain array or not ?</t>
   </si>
 </sst>
 </file>
@@ -960,7 +966,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,7 +988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -993,7 +999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1191,10 +1197,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="9"/>
+    <row r="21" spans="1:3" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44711</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geekster\Live\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85990AE3-28EA-4494-8D42-9BBE80BEB4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC983FB-72D1-42F5-8B0F-6B090F590B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Day</t>
   </si>
@@ -565,6 +565,18 @@
  - Reverse an array without using extra space
  - Check if an array is palindrome or not ?
  - Check if an array is mountain array or not ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Pairwise swap(Swap all arr[i],arr[i+1])
+- Sort 0-1
+       a. Brute Force - sort
+       b. Counting the elements
+       c. Two pointers and swap
+- Sort by parity (Evens first then odds)
+       a. Similar to previous
+- Sort 0-1-2
+       a. Counting the elements
+       b. Use three pointer</t>
   </si>
 </sst>
 </file>
@@ -965,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,9 +1220,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="10"/>
+    <row r="22" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>44712</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C23" s="9"/>
